--- a/Model/Import Model/spreadsheet-import/bSDD2Excel_template.xlsx
+++ b/Model/Import Model/spreadsheet-import/bSDD2Excel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\bSDD\Model\Import Model\spreadsheet-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6455393-2752-4A72-B8AC-B02BE7AB7C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB5E04E-84E7-4277-B3A4-C30C4561061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EBA3E12-7256-469D-A564-02C888068302}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" activeTab="4" xr2:uid="{8EBA3E12-7256-469D-A564-02C888068302}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="11" r:id="rId1"/>
@@ -1055,7 +1055,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique identification within the dictionary of this class property</t>
+          <t>Unique identification code of the `ClassProperty`. See section [Code format] in the documentation. When left empty on import, bSDD will generate a random GUID.</t>
         </r>
       </text>
     </comment>
@@ -1602,7 +1602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="1902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1902">
   <si>
     <t>DataType</t>
   </si>
@@ -7329,12 +7329,6 @@
     <t>ABC.*</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>2024.09.05</t>
-  </si>
-  <si>
     <t>- Fill in the tabs with your own content</t>
   </si>
   <si>
@@ -7344,13 +7338,19 @@
     <t>- Fields in brackets, such as "(Origin Class Code)" are required but only serve the purpose to be matched to adequate object while transforming to JSON file.</t>
   </si>
   <si>
-    <t>Add explanations on the Excel template usage. ChangeRequestEmailAddresses is now ChangeRequestEmailAddress. Formatting. Fix issues with ClassProperty units.</t>
-  </si>
-  <si>
     <t>https://aaa.bbb.cc</t>
   </si>
   <si>
     <t>https://identifier.buildingsmart.org/uri/bs-agri/fruitvegs/1.0/prop/width/val/red</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>2024.09.18</t>
+  </si>
+  <si>
+    <t>ClassProperty code no longer required.</t>
   </si>
 </sst>
 </file>
@@ -8028,6 +8028,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -8053,9 +8056,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9223,28 +9223,28 @@
   </sheetPr>
   <dimension ref="B3:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="14.33203125" style="2" customWidth="1"/>
-    <col min="10" max="12" width="4.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" style="2" customWidth="1"/>
-    <col min="16" max="18" width="8.88671875" style="2"/>
-    <col min="19" max="19" width="7.77734375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="4.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="2" customWidth="1"/>
+    <col min="4" max="8" width="8.90625" style="2"/>
+    <col min="9" max="9" width="14.36328125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="4.36328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.08984375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="3.81640625" style="2" customWidth="1"/>
+    <col min="16" max="18" width="8.90625" style="2"/>
+    <col min="19" max="19" width="7.81640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.36328125" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="32"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
@@ -9264,7 +9264,7 @@
       <c r="S3" s="33"/>
       <c r="T3" s="34"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="35"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9288,7 +9288,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="35"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -9302,19 +9302,19 @@
       <c r="M5" s="43" t="s">
         <v>1297</v>
       </c>
-      <c r="N5" s="91" t="s">
-        <v>1895</v>
-      </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="92" t="s">
-        <v>1899</v>
-      </c>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
+      <c r="N5" s="92" t="s">
+        <v>1900</v>
+      </c>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93" t="s">
+        <v>1901</v>
+      </c>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="35"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -9329,16 +9329,16 @@
         <v>1296</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="35"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -9356,13 +9356,13 @@
         <v>1295</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -9374,15 +9374,15 @@
       <c r="J8" s="36"/>
       <c r="L8" s="35"/>
       <c r="M8" s="43"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="2:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="35"/>
       <c r="C9" s="42" t="s">
         <v>122</v>
@@ -9395,57 +9395,57 @@
       <c r="I9" s="1"/>
       <c r="J9" s="36"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="35"/>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>1302</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="36"/>
       <c r="L10" s="39"/>
       <c r="M10" s="45"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="41"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="35"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="35"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="36"/>
       <c r="L12" s="32"/>
       <c r="M12" s="33"/>
@@ -9457,15 +9457,15 @@
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="35"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
       <c r="J13" s="36"/>
       <c r="L13" s="35"/>
       <c r="M13" s="1" t="s">
@@ -9479,7 +9479,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="35"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
@@ -9490,28 +9490,28 @@
       <c r="I14" s="49"/>
       <c r="J14" s="36"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="94" t="s">
+      <c r="M14" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="35"/>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="36"/>
       <c r="L15" s="35"/>
       <c r="M15" s="38"/>
@@ -9523,17 +9523,17 @@
       <c r="S15" s="1"/>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="35"/>
-      <c r="C16" s="95" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
+      <c r="C16" s="96" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
       <c r="J16" s="36"/>
       <c r="L16" s="35"/>
       <c r="M16" s="1" t="s">
@@ -9547,41 +9547,41 @@
       <c r="S16" s="1"/>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="35"/>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="96" t="s">
         <v>1884</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="36"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="94" t="s">
+      <c r="M17" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="35"/>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="96" t="s">
         <v>1299</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
       <c r="J18" s="36"/>
       <c r="L18" s="35"/>
       <c r="M18" s="37"/>
@@ -9593,15 +9593,15 @@
       <c r="S18" s="37"/>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="35"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
       <c r="J19" s="36"/>
       <c r="L19" s="35"/>
       <c r="M19" s="1" t="s">
@@ -9615,39 +9615,39 @@
       <c r="S19" s="37"/>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="35"/>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
       <c r="J20" s="36"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="94" t="s">
+      <c r="M20" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B21" s="35"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
       <c r="J21" s="36"/>
       <c r="L21" s="35"/>
       <c r="M21" s="37"/>
@@ -9659,17 +9659,17 @@
       <c r="S21" s="37"/>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" s="35"/>
-      <c r="C22" s="95" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
+      <c r="C22" s="96" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
       <c r="J22" s="36"/>
       <c r="L22" s="35"/>
       <c r="M22" t="s">
@@ -9683,39 +9683,39 @@
       <c r="S22" s="37"/>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="35"/>
-      <c r="C23" s="95" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
+      <c r="C23" s="96" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
       <c r="J23" s="36"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="94" t="s">
+      <c r="M23" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="35"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
       <c r="J24" s="36"/>
       <c r="L24" s="35"/>
       <c r="M24" s="1"/>
@@ -9727,17 +9727,17 @@
       <c r="S24" s="1"/>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="35"/>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="96" t="s">
         <v>1301</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
       <c r="J25" s="36"/>
       <c r="L25" s="35"/>
       <c r="M25" s="1" t="s">
@@ -9751,15 +9751,15 @@
       <c r="S25" s="1"/>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="2:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="35"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
       <c r="J26" s="36"/>
       <c r="L26" s="35"/>
       <c r="M26" s="38" t="s">
@@ -9773,7 +9773,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="39"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -9842,30 +9842,30 @@
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.21875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="28.109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.08984375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1796875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="28.08984375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.08984375" style="2" customWidth="1"/>
     <col min="18" max="18" width="12" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="19" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
@@ -9955,7 +9955,7 @@
       <c r="Q3" s="65"/>
       <c r="R3" s="66"/>
     </row>
-    <row r="4" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="63" t="s">
         <v>1309</v>
       </c>
@@ -9976,7 +9976,7 @@
       <c r="Q4" s="65"/>
       <c r="R4" s="66"/>
     </row>
-    <row r="5" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="55" t="s">
         <v>49</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -10046,7 +10046,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>10</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -10114,7 +10114,7 @@
       <c r="Q8" s="12"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection insertRows="0" autoFilter="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10148,44 +10148,44 @@
   </sheetPr>
   <dimension ref="B2:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="18" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" style="2" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="2"/>
+    <col min="27" max="27" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:29" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:29" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
@@ -10309,7 +10309,7 @@
       <c r="AB3" s="65"/>
       <c r="AC3" s="66"/>
     </row>
-    <row r="4" spans="2:29" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:29" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B4" s="69" t="s">
         <v>1309</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="5" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="55" t="s">
         <v>49</v>
       </c>
@@ -10437,13 +10437,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="K6" s="10"/>
       <c r="P6" s="10"/>
       <c r="V6" s="10"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="2:29" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>18</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -10555,7 +10555,7 @@
       <c r="AB8"/>
       <c r="AC8"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -10585,7 +10585,7 @@
       <c r="AB9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -10614,7 +10614,7 @@
       <c r="AB10"/>
       <c r="AC10"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -10643,7 +10643,7 @@
       <c r="AB11"/>
       <c r="AC11"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -10672,7 +10672,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -10701,7 +10701,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -10730,7 +10730,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -10759,7 +10759,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -10788,7 +10788,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -10817,7 +10817,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -10846,7 +10846,7 @@
       <c r="AB18"/>
       <c r="AC18"/>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -10875,7 +10875,7 @@
       <c r="AB19"/>
       <c r="AC19"/>
     </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -10904,7 +10904,7 @@
       <c r="AB20"/>
       <c r="AC20"/>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -10933,7 +10933,7 @@
       <c r="AB21"/>
       <c r="AC21"/>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -10962,7 +10962,7 @@
       <c r="AB22"/>
       <c r="AC22"/>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -10991,7 +10991,7 @@
       <c r="AB23"/>
       <c r="AC23"/>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -11020,7 +11020,7 @@
       <c r="AB24"/>
       <c r="AC24"/>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -11049,7 +11049,7 @@
       <c r="AB25"/>
       <c r="AC25"/>
     </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -11078,7 +11078,7 @@
       <c r="AB26"/>
       <c r="AC26"/>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.35">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -11146,63 +11146,63 @@
   </sheetPr>
   <dimension ref="B2:AU27"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.90625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.36328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29" style="2" customWidth="1"/>
     <col min="18" max="18" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.6640625" style="2" customWidth="1"/>
-    <col min="35" max="35" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.6640625" style="2" customWidth="1"/>
-    <col min="45" max="45" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="8.88671875" style="2"/>
+    <col min="19" max="19" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6328125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.6328125" style="2" customWidth="1"/>
+    <col min="45" max="45" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:47" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:47" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
@@ -11396,7 +11396,7 @@
       <c r="AT3" s="65"/>
       <c r="AU3" s="66"/>
     </row>
-    <row r="4" spans="2:47" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:47" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B4" s="63" t="s">
         <v>1309</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="5" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="55" t="s">
         <v>49</v>
       </c>
@@ -11578,14 +11578,14 @@
       </c>
       <c r="AU5" s="76"/>
     </row>
-    <row r="6" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="J6" s="10"/>
       <c r="O6" s="10"/>
       <c r="AM6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="2:47" s="26" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:47" s="26" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="27" t="s">
         <v>18</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -11770,7 +11770,7 @@
       <c r="AT8"/>
       <c r="AU8"/>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -11818,7 +11818,7 @@
       <c r="AT9"/>
       <c r="AU9"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -11866,7 +11866,7 @@
       <c r="AT10"/>
       <c r="AU10"/>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -11914,7 +11914,7 @@
       <c r="AT11"/>
       <c r="AU11"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -11962,7 +11962,7 @@
       <c r="AT12"/>
       <c r="AU12"/>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -12010,7 +12010,7 @@
       <c r="AT13"/>
       <c r="AU13"/>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -12058,7 +12058,7 @@
       <c r="AT14"/>
       <c r="AU14"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -12106,7 +12106,7 @@
       <c r="AT15"/>
       <c r="AU15"/>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -12154,7 +12154,7 @@
       <c r="AT16"/>
       <c r="AU16"/>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -12202,7 +12202,7 @@
       <c r="AT17"/>
       <c r="AU17"/>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -12250,7 +12250,7 @@
       <c r="AT18"/>
       <c r="AU18"/>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.35">
       <c r="B19" s="25"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -12298,7 +12298,7 @@
       <c r="AT19"/>
       <c r="AU19"/>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -12345,7 +12345,7 @@
       <c r="AT20"/>
       <c r="AU20"/>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -12392,7 +12392,7 @@
       <c r="AT21"/>
       <c r="AU21"/>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -12439,7 +12439,7 @@
       <c r="AT22"/>
       <c r="AU22"/>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -12486,7 +12486,7 @@
       <c r="AT23"/>
       <c r="AU23"/>
     </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -12533,7 +12533,7 @@
       <c r="AT24"/>
       <c r="AU24"/>
     </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -12580,7 +12580,7 @@
       <c r="AT25"/>
       <c r="AU25"/>
     </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -12627,7 +12627,7 @@
       <c r="AT26"/>
       <c r="AU26"/>
     </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:47" x14ac:dyDescent="0.35">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -12730,38 +12730,38 @@
   </sheetPr>
   <dimension ref="B2:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2"/>
+    <col min="23" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
@@ -12823,16 +12823,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>1310</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>1310</v>
-      </c>
+      <c r="D3" s="65"/>
       <c r="E3" s="68" t="s">
         <v>1311</v>
       </c>
@@ -12855,7 +12853,7 @@
       <c r="T3" s="65"/>
       <c r="U3" s="66"/>
     </row>
-    <row r="4" spans="2:21" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B4" s="78" t="s">
         <v>1309</v>
       </c>
@@ -12881,7 +12879,7 @@
       <c r="T4" s="70"/>
       <c r="U4" s="81"/>
     </row>
-    <row r="5" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="83" t="s">
         <v>49</v>
       </c>
@@ -12925,7 +12923,7 @@
         <v>1893</v>
       </c>
       <c r="R5" s="73" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="S5" s="73" t="s">
         <v>97</v>
@@ -12937,10 +12935,10 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="2:21" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>1290</v>
       </c>
@@ -12999,7 +12997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -13021,7 +13019,7 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -13043,7 +13041,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -13065,7 +13063,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -13087,7 +13085,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -13109,7 +13107,7 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -13131,7 +13129,7 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -13153,7 +13151,7 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -13175,7 +13173,7 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -13197,7 +13195,7 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -13219,7 +13217,7 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -13240,7 +13238,7 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -13261,7 +13259,7 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -13282,7 +13280,7 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -13303,7 +13301,7 @@
       <c r="T21"/>
       <c r="U21"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -13324,7 +13322,7 @@
       <c r="T22"/>
       <c r="U22"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -13345,7 +13343,7 @@
       <c r="T23"/>
       <c r="U23"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -13366,7 +13364,7 @@
       <c r="T24"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -13387,7 +13385,7 @@
       <c r="T25"/>
       <c r="U25"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -13408,7 +13406,7 @@
       <c r="T26"/>
       <c r="U26"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -13467,24 +13465,24 @@
   </sheetPr>
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="69.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="2" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="9" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
@@ -13507,7 +13505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
@@ -13524,7 +13522,7 @@
       <c r="G3" s="72"/>
       <c r="H3" s="85"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="63" t="s">
         <v>1309</v>
       </c>
@@ -13535,7 +13533,7 @@
       <c r="G4" s="72"/>
       <c r="H4" s="85"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="55" t="s">
         <v>49</v>
       </c>
@@ -13555,10 +13553,10 @@
         <v>0.2</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -13567,7 +13565,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>1290</v>
       </c>
@@ -13587,7 +13585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -13596,7 +13594,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -13605,7 +13603,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -13614,7 +13612,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -13623,7 +13621,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -13632,7 +13630,7 @@
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -13641,7 +13639,7 @@
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -13650,7 +13648,7 @@
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -13659,7 +13657,7 @@
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -13668,7 +13666,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -13677,7 +13675,7 @@
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -13686,7 +13684,7 @@
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="25"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -13695,7 +13693,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -13704,7 +13702,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -13712,7 +13710,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -13720,7 +13718,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -13728,7 +13726,7 @@
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -13736,7 +13734,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -13744,7 +13742,7 @@
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -13752,7 +13750,7 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -13812,22 +13810,22 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="66.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="2" customWidth="1"/>
     <col min="10" max="10" width="19" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
@@ -13856,7 +13854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="82" t="s">
         <v>1</v>
       </c>
@@ -13877,7 +13875,7 @@
       <c r="I3" s="65"/>
       <c r="J3" s="77"/>
     </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B4" s="82" t="s">
         <v>1309</v>
       </c>
@@ -13894,7 +13892,7 @@
       <c r="I4" s="65"/>
       <c r="J4" s="66"/>
     </row>
-    <row r="5" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="83" t="s">
         <v>49</v>
       </c>
@@ -13912,20 +13910,20 @@
         <v>127</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="I5" s="73">
         <v>2</v>
       </c>
-      <c r="J5" s="101" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="91" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>872</v>
       </c>
@@ -13951,7 +13949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -13962,7 +13960,7 @@
       <c r="I8" s="11"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -13973,7 +13971,7 @@
       <c r="I9" s="11"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -13984,7 +13982,7 @@
       <c r="I10" s="11"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -13995,7 +13993,7 @@
       <c r="I11" s="11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -14006,7 +14004,7 @@
       <c r="I12" s="11"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -14017,7 +14015,7 @@
       <c r="I13" s="11"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -14028,7 +14026,7 @@
       <c r="I14" s="11"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -14039,7 +14037,7 @@
       <c r="I15" s="11"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -14050,7 +14048,7 @@
       <c r="I16" s="11"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -14061,7 +14059,7 @@
       <c r="I17" s="11"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" s="11"/>
@@ -14071,7 +14069,7 @@
       <c r="I18" s="11"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" s="11"/>
@@ -14081,7 +14079,7 @@
       <c r="I19" s="11"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="11"/>
@@ -14091,7 +14089,7 @@
       <c r="I20" s="11"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="11"/>
@@ -14101,7 +14099,7 @@
       <c r="I21" s="11"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="11"/>
@@ -14111,7 +14109,7 @@
       <c r="I22" s="11"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="11"/>
@@ -14121,7 +14119,7 @@
       <c r="I23" s="11"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24" s="11"/>
@@ -14131,7 +14129,7 @@
       <c r="I24" s="11"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25" s="11"/>
@@ -14141,7 +14139,7 @@
       <c r="I25" s="11"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26" s="11"/>
@@ -14151,7 +14149,7 @@
       <c r="I26" s="11"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" s="11"/>
@@ -14196,19 +14194,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" style="2" customWidth="1"/>
     <col min="5" max="5" width="64" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="27.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
@@ -14228,7 +14226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="16" x14ac:dyDescent="0.45">
       <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
@@ -14244,7 +14242,7 @@
       </c>
       <c r="G3" s="77"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="63" t="s">
         <v>1309</v>
       </c>
@@ -14254,7 +14252,7 @@
       <c r="F4" s="65"/>
       <c r="G4" s="66"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="55" t="s">
         <v>49</v>
       </c>
@@ -14270,11 +14268,11 @@
       <c r="F5" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="101" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="91" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -14282,7 +14280,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:7" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="30" t="s">
         <v>872</v>
       </c>
@@ -14299,7 +14297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="25"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -14307,7 +14305,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="25"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -14315,7 +14313,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="25"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -14323,7 +14321,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -14331,7 +14329,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -14339,7 +14337,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -14347,7 +14345,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -14355,7 +14353,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -14363,7 +14361,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="25"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -14371,7 +14369,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -14379,70 +14377,70 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -14481,60 +14479,60 @@
       <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.88671875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="29.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.453125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.36328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.36328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.6328125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.36328125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.90625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.36328125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.08984375" style="2" customWidth="1"/>
     <col min="24" max="24" width="39" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="3.36328125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="42.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.90625" style="2" customWidth="1"/>
     <col min="28" max="28" width="14" style="2" customWidth="1"/>
-    <col min="29" max="29" width="41.6640625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="5.33203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="20.33203125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="73.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.33203125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="70.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.88671875" style="2"/>
+    <col min="29" max="29" width="41.6328125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="5.36328125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="20.36328125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="73.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.36328125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="70.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:35" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="R2" s="14" t="s">
@@ -14576,8 +14574,8 @@
       </c>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>89</v>
       </c>
@@ -14639,7 +14637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -14707,7 +14705,7 @@
         <v>https://identifier.buildingsmart.org/uri////prop/0</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>74</v>
       </c>
@@ -14769,7 +14767,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>1303</v>
       </c>
@@ -14825,7 +14823,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>81</v>
       </c>
@@ -14875,7 +14873,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.35">
       <c r="H9" t="s">
         <v>86</v>
       </c>
@@ -14922,7 +14920,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.35">
       <c r="H10" t="s">
         <v>87</v>
       </c>
@@ -14966,7 +14964,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.35">
       <c r="J11" t="s">
         <v>78</v>
       </c>
@@ -15007,7 +15005,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.35">
       <c r="J12" t="s">
         <v>90</v>
       </c>
@@ -15048,7 +15046,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.35">
       <c r="R13" t="s">
         <v>139</v>
       </c>
@@ -15086,7 +15084,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.35">
       <c r="R14" t="s">
         <v>140</v>
       </c>
@@ -15124,7 +15122,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.35">
       <c r="R15" t="s">
         <v>141</v>
       </c>
@@ -15162,7 +15160,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.35">
       <c r="R16" t="s">
         <v>142</v>
       </c>
@@ -15200,7 +15198,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R17" t="s">
         <v>143</v>
       </c>
@@ -15238,7 +15236,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R18" t="s">
         <v>144</v>
       </c>
@@ -15276,7 +15274,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>145</v>
       </c>
@@ -15314,7 +15312,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R20" t="s">
         <v>146</v>
       </c>
@@ -15352,7 +15350,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R21" t="s">
         <v>147</v>
       </c>
@@ -15390,7 +15388,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R22" t="s">
         <v>148</v>
       </c>
@@ -15428,7 +15426,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R23" t="s">
         <v>149</v>
       </c>
@@ -15466,7 +15464,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>150</v>
       </c>
@@ -15504,7 +15502,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>151</v>
       </c>
@@ -15542,7 +15540,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>152</v>
       </c>
@@ -15580,7 +15578,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>153</v>
       </c>
@@ -15618,7 +15616,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R28" t="s">
         <v>154</v>
       </c>
@@ -15656,7 +15654,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>155</v>
       </c>
@@ -15694,7 +15692,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R30" t="s">
         <v>156</v>
       </c>
@@ -15732,7 +15730,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>157</v>
       </c>
@@ -15770,7 +15768,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R32" t="s">
         <v>158</v>
       </c>
@@ -15808,7 +15806,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R33" t="s">
         <v>159</v>
       </c>
@@ -15846,7 +15844,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R34" t="s">
         <v>160</v>
       </c>
@@ -15884,7 +15882,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R35" t="s">
         <v>161</v>
       </c>
@@ -15922,7 +15920,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R36" t="s">
         <v>162</v>
       </c>
@@ -15960,7 +15958,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R37" t="s">
         <v>163</v>
       </c>
@@ -15998,7 +15996,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R38" t="s">
         <v>102</v>
       </c>
@@ -16036,7 +16034,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R39" t="s">
         <v>164</v>
       </c>
@@ -16074,7 +16072,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="18:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="18:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R40" t="s">
         <v>165</v>
       </c>
@@ -16112,7 +16110,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R41" t="s">
         <v>166</v>
       </c>
@@ -16140,7 +16138,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="42" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R42" t="s">
         <v>167</v>
       </c>
@@ -16168,7 +16166,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="43" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:35" x14ac:dyDescent="0.35">
       <c r="R43" s="2" t="s">
         <v>168</v>
       </c>
@@ -16196,7 +16194,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="44" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:35" x14ac:dyDescent="0.35">
       <c r="U44" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CV"]</v>
@@ -16218,7 +16216,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="45" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:35" x14ac:dyDescent="0.35">
       <c r="U45" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KY"]</v>
@@ -16240,7 +16238,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="46" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:35" x14ac:dyDescent="0.35">
       <c r="U46" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CF"]</v>
@@ -16262,7 +16260,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="47" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="18:35" x14ac:dyDescent="0.35">
       <c r="U47" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TD"]</v>
@@ -16284,7 +16282,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="48" spans="18:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="18:35" x14ac:dyDescent="0.35">
       <c r="U48" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CL"]</v>
@@ -16306,7 +16304,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="49" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U49" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CN"]</v>
@@ -16328,7 +16326,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="50" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U50" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CX"]</v>
@@ -16350,7 +16348,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="51" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U51" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CC"]</v>
@@ -16372,7 +16370,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="52" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U52" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CO"]</v>
@@ -16394,7 +16392,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="53" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U53" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KM"]</v>
@@ -16416,7 +16414,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="54" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U54" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CG"]</v>
@@ -16438,7 +16436,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="55" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U55" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CD"]</v>
@@ -16460,7 +16458,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="56" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U56" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CK"]</v>
@@ -16482,7 +16480,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="57" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U57" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CR"]</v>
@@ -16504,7 +16502,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="58" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U58" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CI"]</v>
@@ -16526,7 +16524,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="59" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U59" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["HR"]</v>
@@ -16548,7 +16546,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="60" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U60" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CU"]</v>
@@ -16570,7 +16568,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="61" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U61" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CY"]</v>
@@ -16592,7 +16590,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="62" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U62" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CZ"]</v>
@@ -16614,7 +16612,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="63" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U63" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["DK"]</v>
@@ -16636,7 +16634,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="64" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U64" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["DJ"]</v>
@@ -16658,7 +16656,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="65" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U65" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["DM"]</v>
@@ -16680,7 +16678,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="66" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U66" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["DO"]</v>
@@ -16702,7 +16700,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="67" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U67" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["EC"]</v>
@@ -16724,7 +16722,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="68" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U68" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["EG"]</v>
@@ -16746,7 +16744,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="69" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U69" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SV"]</v>
@@ -16768,7 +16766,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="70" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U70" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GQ"]</v>
@@ -16790,7 +16788,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="71" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U71" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ER"]</v>
@@ -16812,7 +16810,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="72" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U72" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["EE"]</v>
@@ -16834,7 +16832,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="73" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U73" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ET"]</v>
@@ -16856,7 +16854,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="74" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U74" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["FK"]</v>
@@ -16878,7 +16876,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="75" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U75" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["FO"]</v>
@@ -16900,7 +16898,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="76" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U76" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["FJ"]</v>
@@ -16922,7 +16920,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="77" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U77" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["FI"]</v>
@@ -16944,7 +16942,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="78" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U78" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["FR"]</v>
@@ -16966,7 +16964,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="79" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U79" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GF"]</v>
@@ -16988,7 +16986,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="80" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U80" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PF"]</v>
@@ -17010,7 +17008,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="81" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U81" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TF"]</v>
@@ -17032,7 +17030,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="82" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U82" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GA"]</v>
@@ -17054,7 +17052,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="83" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U83" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GM"]</v>
@@ -17076,7 +17074,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="84" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U84" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GE"]</v>
@@ -17098,7 +17096,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="85" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U85" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["DE"]</v>
@@ -17120,7 +17118,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="86" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U86" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GH"]</v>
@@ -17142,7 +17140,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="87" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U87" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GI"]</v>
@@ -17164,7 +17162,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="88" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U88" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GR"]</v>
@@ -17186,7 +17184,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="89" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U89" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GL"]</v>
@@ -17208,7 +17206,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="90" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U90" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GD"]</v>
@@ -17230,7 +17228,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="91" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U91" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GP"]</v>
@@ -17252,7 +17250,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="92" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U92" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GU"]</v>
@@ -17274,7 +17272,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="93" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U93" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GT"]</v>
@@ -17296,7 +17294,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="94" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U94" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GG"]</v>
@@ -17318,7 +17316,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="95" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U95" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GN"]</v>
@@ -17340,7 +17338,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="96" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U96" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GW"]</v>
@@ -17362,7 +17360,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="97" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U97" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GY"]</v>
@@ -17384,7 +17382,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="98" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U98" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["HT"]</v>
@@ -17406,7 +17404,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="99" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U99" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["HM"]</v>
@@ -17428,7 +17426,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="100" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U100" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["VA"]</v>
@@ -17450,7 +17448,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="101" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U101" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["HN"]</v>
@@ -17472,7 +17470,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="102" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U102" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["HK"]</v>
@@ -17494,7 +17492,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="103" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U103" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["HU"]</v>
@@ -17516,7 +17514,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="104" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U104" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["IS"]</v>
@@ -17538,7 +17536,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="105" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U105" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["IN"]</v>
@@ -17560,7 +17558,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="106" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U106" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ID"]</v>
@@ -17582,7 +17580,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="107" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U107" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["IR"]</v>
@@ -17604,7 +17602,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="108" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U108" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["IQ"]</v>
@@ -17626,7 +17624,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="109" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U109" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["IE"]</v>
@@ -17648,7 +17646,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="110" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U110" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["IM"]</v>
@@ -17670,7 +17668,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="111" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U111" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["IL"]</v>
@@ -17692,7 +17690,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="112" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U112" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["IT"]</v>
@@ -17714,7 +17712,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="113" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U113" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["JM"]</v>
@@ -17736,7 +17734,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="114" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U114" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["JP"]</v>
@@ -17758,7 +17756,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="115" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U115" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["JE"]</v>
@@ -17780,7 +17778,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="116" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U116" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["JO"]</v>
@@ -17802,7 +17800,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="117" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U117" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KZ"]</v>
@@ -17824,7 +17822,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="118" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U118" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KE"]</v>
@@ -17846,7 +17844,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="119" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U119" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KI"]</v>
@@ -17868,7 +17866,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="120" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U120" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KP"]</v>
@@ -17890,7 +17888,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="121" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U121" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KR"]</v>
@@ -17912,7 +17910,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="122" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U122" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KW"]</v>
@@ -17934,7 +17932,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="123" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U123" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KG"]</v>
@@ -17956,7 +17954,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="124" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U124" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LA"]</v>
@@ -17978,7 +17976,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="125" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U125" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LV"]</v>
@@ -18000,7 +17998,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="126" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U126" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LB"]</v>
@@ -18022,7 +18020,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="127" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U127" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LS"]</v>
@@ -18044,7 +18042,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="128" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U128" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LR"]</v>
@@ -18066,7 +18064,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="129" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U129" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LY"]</v>
@@ -18088,7 +18086,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="130" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U130" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LI"]</v>
@@ -18110,7 +18108,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="131" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U131" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LT"]</v>
@@ -18132,7 +18130,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="132" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U132" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LU"]</v>
@@ -18154,7 +18152,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="133" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U133" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MO"]</v>
@@ -18176,7 +18174,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="134" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U134" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MK"]</v>
@@ -18198,7 +18196,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="135" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="135" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U135" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MG"]</v>
@@ -18220,7 +18218,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="136" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="136" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U136" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MW"]</v>
@@ -18242,7 +18240,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="137" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U137" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MY"]</v>
@@ -18264,7 +18262,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="138" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U138" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MV"]</v>
@@ -18286,7 +18284,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="139" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U139" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ML"]</v>
@@ -18308,7 +18306,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="140" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U140" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MT"]</v>
@@ -18330,7 +18328,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="141" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U141" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MH"]</v>
@@ -18352,7 +18350,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="142" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U142" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MQ"]</v>
@@ -18374,7 +18372,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="143" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U143" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MR"]</v>
@@ -18396,7 +18394,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="144" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U144" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MU"]</v>
@@ -18418,7 +18416,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="145" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U145" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["YT"]</v>
@@ -18440,7 +18438,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="146" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U146" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MX"]</v>
@@ -18462,7 +18460,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="147" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U147" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["FM"]</v>
@@ -18484,7 +18482,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="148" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U148" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MD"]</v>
@@ -18506,7 +18504,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="149" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U149" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MC"]</v>
@@ -18528,7 +18526,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="150" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U150" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MN"]</v>
@@ -18550,7 +18548,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="151" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U151" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ME"]</v>
@@ -18572,7 +18570,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="152" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="152" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U152" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MS"]</v>
@@ -18594,7 +18592,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="153" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U153" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MA"]</v>
@@ -18616,7 +18614,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="154" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U154" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MZ"]</v>
@@ -18638,7 +18636,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="155" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U155" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MM"]</v>
@@ -18660,7 +18658,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="156" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U156" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NA"]</v>
@@ -18682,7 +18680,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="157" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U157" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NR"]</v>
@@ -18704,7 +18702,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="158" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U158" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NP"]</v>
@@ -18726,7 +18724,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="159" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U159" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NL"]</v>
@@ -18748,7 +18746,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="160" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="160" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U160" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["AN"]</v>
@@ -18770,7 +18768,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="161" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U161" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NC"]</v>
@@ -18792,7 +18790,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="162" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U162" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NZ"]</v>
@@ -18814,7 +18812,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="163" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U163" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NI"]</v>
@@ -18836,7 +18834,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="164" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U164" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NE"]</v>
@@ -18858,7 +18856,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="165" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="165" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U165" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NG"]</v>
@@ -18880,7 +18878,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="166" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U166" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NU"]</v>
@@ -18902,7 +18900,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="167" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U167" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NF"]</v>
@@ -18924,7 +18922,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="168" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U168" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MP"]</v>
@@ -18946,7 +18944,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="169" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U169" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["NO"]</v>
@@ -18968,7 +18966,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="170" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="170" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U170" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["OM"]</v>
@@ -18990,7 +18988,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="171" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U171" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PK"]</v>
@@ -19012,7 +19010,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="172" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U172" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PW"]</v>
@@ -19034,7 +19032,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="173" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U173" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PS"]</v>
@@ -19056,7 +19054,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="174" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="174" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U174" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PA"]</v>
@@ -19078,7 +19076,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="175" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U175" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PG"]</v>
@@ -19100,7 +19098,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="176" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U176" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PY"]</v>
@@ -19122,7 +19120,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="177" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U177" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PE"]</v>
@@ -19144,7 +19142,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="178" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="178" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U178" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PH"]</v>
@@ -19166,7 +19164,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="179" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="179" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U179" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PN"]</v>
@@ -19188,7 +19186,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="180" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U180" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PL"]</v>
@@ -19210,7 +19208,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="181" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U181" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PT"]</v>
@@ -19232,7 +19230,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="182" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="182" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U182" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PR"]</v>
@@ -19254,7 +19252,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="183" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U183" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["QA"]</v>
@@ -19276,7 +19274,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="184" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U184" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["RE"]</v>
@@ -19298,7 +19296,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="185" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U185" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["RO"]</v>
@@ -19320,7 +19318,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="186" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="186" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U186" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["RU"]</v>
@@ -19342,7 +19340,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="187" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="187" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U187" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["RW"]</v>
@@ -19364,7 +19362,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="188" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="188" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U188" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["BL"]</v>
@@ -19386,7 +19384,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="189" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="189" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U189" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SH"]</v>
@@ -19408,7 +19406,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="190" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="190" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U190" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["KN"]</v>
@@ -19430,7 +19428,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="191" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="191" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U191" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LC"]</v>
@@ -19452,7 +19450,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="192" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="192" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U192" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["MF"]</v>
@@ -19474,7 +19472,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="193" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="193" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U193" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["PM"]</v>
@@ -19496,7 +19494,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="194" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="194" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U194" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["VC"]</v>
@@ -19518,7 +19516,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="195" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="195" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U195" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["WS"]</v>
@@ -19540,7 +19538,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="196" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="196" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U196" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SM"]</v>
@@ -19562,7 +19560,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="197" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="197" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U197" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ST"]</v>
@@ -19584,7 +19582,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="198" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="198" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U198" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SA"]</v>
@@ -19606,7 +19604,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="199" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="199" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U199" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SN"]</v>
@@ -19628,7 +19626,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="200" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="200" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U200" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["RS"]</v>
@@ -19650,7 +19648,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="201" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="201" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U201" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SC"]</v>
@@ -19672,7 +19670,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="202" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="202" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U202" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SL"]</v>
@@ -19694,7 +19692,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="203" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="203" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U203" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SG"]</v>
@@ -19716,7 +19714,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="204" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="204" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U204" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SK"]</v>
@@ -19738,7 +19736,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="205" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="205" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U205" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SI"]</v>
@@ -19760,7 +19758,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="206" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="206" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U206" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SB"]</v>
@@ -19782,7 +19780,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="207" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="207" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U207" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SO"]</v>
@@ -19804,7 +19802,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="208" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="208" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U208" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ZA"]</v>
@@ -19826,7 +19824,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="209" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="209" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U209" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GS"]</v>
@@ -19848,7 +19846,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="210" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="210" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U210" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ES"]</v>
@@ -19870,7 +19868,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="211" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="211" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U211" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["LK"]</v>
@@ -19892,7 +19890,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="212" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="212" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U212" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SD"]</v>
@@ -19914,7 +19912,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="213" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="213" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U213" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SR"]</v>
@@ -19936,7 +19934,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="214" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="214" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U214" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SJ"]</v>
@@ -19958,7 +19956,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="215" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="215" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U215" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SZ"]</v>
@@ -19980,7 +19978,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="216" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="216" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U216" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SE"]</v>
@@ -20002,7 +20000,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="217" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="217" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U217" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["CH"]</v>
@@ -20024,7 +20022,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="218" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="218" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U218" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["SY"]</v>
@@ -20046,7 +20044,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="219" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="219" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U219" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TW"]</v>
@@ -20068,7 +20066,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="220" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="220" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U220" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TJ"]</v>
@@ -20090,7 +20088,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="221" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="221" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U221" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TZ"]</v>
@@ -20112,7 +20110,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="222" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="222" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U222" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TH"]</v>
@@ -20134,7 +20132,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="223" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="223" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U223" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TL"]</v>
@@ -20156,7 +20154,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="224" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="224" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U224" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TG"]</v>
@@ -20178,7 +20176,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="225" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="225" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U225" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TK"]</v>
@@ -20200,7 +20198,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="226" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="226" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U226" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TO"]</v>
@@ -20222,7 +20220,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="227" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="227" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U227" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TT"]</v>
@@ -20244,7 +20242,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="228" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="228" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U228" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TN"]</v>
@@ -20266,7 +20264,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="229" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="229" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U229" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TR"]</v>
@@ -20288,7 +20286,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="230" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="230" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U230" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TM"]</v>
@@ -20310,7 +20308,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="231" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="231" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U231" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TC"]</v>
@@ -20332,7 +20330,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="232" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="232" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U232" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["TV"]</v>
@@ -20354,7 +20352,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="233" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="233" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U233" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["UG"]</v>
@@ -20376,7 +20374,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="234" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="234" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U234" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["UA"]</v>
@@ -20398,7 +20396,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="235" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="235" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U235" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["AE"]</v>
@@ -20420,7 +20418,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="236" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="236" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U236" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["GB"]</v>
@@ -20442,7 +20440,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="237" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="237" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U237" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["US"]</v>
@@ -20464,7 +20462,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="238" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="238" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U238" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["UM"]</v>
@@ -20486,7 +20484,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="239" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="239" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U239" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["UY"]</v>
@@ -20508,7 +20506,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="240" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="240" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U240" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["UZ"]</v>
@@ -20530,7 +20528,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="241" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="241" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U241" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["VU"]</v>
@@ -20552,7 +20550,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="242" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="242" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U242" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["VE"]</v>
@@ -20574,7 +20572,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="243" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="243" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U243" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["VN"]</v>
@@ -20596,7 +20594,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="244" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="244" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U244" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["VG"]</v>
@@ -20618,7 +20616,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="245" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="245" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U245" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["VI"]</v>
@@ -20640,7 +20638,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="246" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="246" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U246" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["WF"]</v>
@@ -20662,7 +20660,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="247" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="247" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U247" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["EH"]</v>
@@ -20684,7 +20682,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="248" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="248" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U248" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["YE"]</v>
@@ -20706,7 +20704,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="249" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="249" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U249" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ZM"]</v>
@@ -20728,7 +20726,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="250" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="250" spans="21:29" x14ac:dyDescent="0.35">
       <c r="U250" t="str">
         <f>"["""&amp;Countries[[#This Row],[Countries]]&amp;"""]"</f>
         <v>["ZW"]</v>
@@ -20750,7 +20748,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="251" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="251" spans="21:29" x14ac:dyDescent="0.35">
       <c r="Z251" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Wh/m²"]</v>
@@ -20762,7 +20760,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="252" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="252" spans="21:29" x14ac:dyDescent="0.35">
       <c r="Z252" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Wh/ft²"]</v>
@@ -20774,7 +20772,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="253" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="253" spans="21:29" x14ac:dyDescent="0.35">
       <c r="Z253" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kWh/m²"]</v>
@@ -20786,7 +20784,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="254" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="254" spans="21:29" x14ac:dyDescent="0.35">
       <c r="Z254" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kWh/ft²"]</v>
@@ -20798,7 +20796,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="255" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="255" spans="21:29" x14ac:dyDescent="0.35">
       <c r="Z255" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MWh/m²"]</v>
@@ -20810,7 +20808,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="256" spans="21:29" x14ac:dyDescent="0.3">
+    <row r="256" spans="21:29" x14ac:dyDescent="0.35">
       <c r="Z256" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MWh/ft²"]</v>
@@ -20822,7 +20820,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="257" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="257" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z257" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MJ/m²"]</v>
@@ -20834,7 +20832,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="258" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="258" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z258" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MJ/ft²"]</v>
@@ -20846,7 +20844,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="259" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="259" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z259" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kBTU/ft²"]</v>
@@ -20858,7 +20856,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="260" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="260" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z260" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MBTU/ft²"]</v>
@@ -20870,7 +20868,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="261" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="261" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z261" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["J/g"]</v>
@@ -20882,7 +20880,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="262" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="262" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z262" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["J/kg"]</v>
@@ -20894,7 +20892,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="263" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="263" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z263" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["J/kg dry"]</v>
@@ -20906,7 +20904,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="264" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="264" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z264" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["BTU/lb"]</v>
@@ -20918,7 +20916,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="265" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="265" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z265" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kJ/kg"]</v>
@@ -20930,7 +20928,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="266" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="266" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z266" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kJ/kg dry"]</v>
@@ -20942,7 +20940,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="267" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="267" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z267" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MJ/kg dry"]</v>
@@ -20954,7 +20952,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="268" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="268" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z268" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cal/g"]</v>
@@ -20966,7 +20964,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="269" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="269" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z269" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["lbf"]</v>
@@ -20978,7 +20976,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="270" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="270" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z270" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Hz"]</v>
@@ -20990,7 +20988,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="271" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="271" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z271" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kHz"]</v>
@@ -21002,7 +21000,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="272" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="272" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z272" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cph"]</v>
@@ -21014,7 +21012,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="273" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="273" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z273" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cpm"]</v>
@@ -21026,7 +21024,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="274" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="274" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z274" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MHz"]</v>
@@ -21038,7 +21036,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="275" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="275" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z275" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["%/s"]</v>
@@ -21050,7 +21048,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="276" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="276" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z276" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ACH"]</v>
@@ -21062,7 +21060,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="277" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="277" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z277" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/m²"]</v>
@@ -21074,7 +21072,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="278" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="278" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z278" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["g/m²"]</v>
@@ -21086,7 +21084,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="279" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="279" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z279" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["K/s"]</v>
@@ -21098,7 +21096,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="280" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="280" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z280" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["°C/h"]</v>
@@ -21110,7 +21108,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="281" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="281" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z281" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["°C/min"]</v>
@@ -21122,7 +21120,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="282" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="282" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z282" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["°F/h"]</v>
@@ -21134,7 +21132,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="283" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="283" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z283" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["°F/min"]</v>
@@ -21146,7 +21144,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="284" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="284" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z284" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["K/h"]</v>
@@ -21158,7 +21156,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="285" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="285" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z285" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["K/min"]</v>
@@ -21170,7 +21168,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="286" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="286" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z286" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["lx"]</v>
@@ -21182,7 +21180,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="287" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="287" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z287" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["fc"]</v>
@@ -21194,7 +21192,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="288" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="288" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z288" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["phot"]</v>
@@ -21206,7 +21204,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="289" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="289" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z289" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/m² irr"]</v>
@@ -21218,7 +21216,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="290" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="290" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z290" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/ft² irr"]</v>
@@ -21230,7 +21228,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="291" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="291" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z291" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m"]</v>
@@ -21242,7 +21240,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="292" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="292" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z292" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["µm"]</v>
@@ -21254,7 +21252,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="293" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="293" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z293" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cm"]</v>
@@ -21266,7 +21264,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="294" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="294" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z294" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["km"]</v>
@@ -21278,7 +21276,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="295" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="295" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z295" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["in"]</v>
@@ -21290,7 +21288,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="296" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="296" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z296" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ft"]</v>
@@ -21302,7 +21300,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="297" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="297" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z297" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["yd"]</v>
@@ -21314,7 +21312,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="298" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="298" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z298" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mile"]</v>
@@ -21326,7 +21324,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="299" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="299" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z299" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cd/m²"]</v>
@@ -21338,7 +21336,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="300" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="300" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z300" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cd/ft²"]</v>
@@ -21350,7 +21348,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="301" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="301" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z301" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["lm"]</v>
@@ -21362,7 +21360,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="302" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="302" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z302" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cd"]</v>
@@ -21374,7 +21372,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="303" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="303" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z303" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/m"]</v>
@@ -21386,7 +21384,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="304" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="304" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z304" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Wb"]</v>
@@ -21398,7 +21396,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="305" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="305" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z305" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["T"]</v>
@@ -21410,7 +21408,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="306" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="306" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z306" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg"]</v>
@@ -21422,7 +21420,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="307" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="307" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z307" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mg"]</v>
@@ -21434,7 +21432,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="308" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="308" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z308" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["g"]</v>
@@ -21446,7 +21444,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="309" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="309" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z309" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["oz"]</v>
@@ -21458,7 +21456,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="310" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="310" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z310" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["lb"]</v>
@@ -21470,7 +21468,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="311" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="311" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z311" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["klb"]</v>
@@ -21482,7 +21480,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="312" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="312" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z312" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ton"]</v>
@@ -21494,7 +21492,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="313" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="313" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z313" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["t"]</v>
@@ -21506,7 +21504,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="314" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="314" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z314" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/s"]</v>
@@ -21518,7 +21516,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="315" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="315" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z315" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/min"]</v>
@@ -21530,7 +21528,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="316" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="316" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z316" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/h"]</v>
@@ -21542,7 +21540,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="317" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="317" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z317" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["lb/min"]</v>
@@ -21554,7 +21552,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="318" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="318" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z318" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["lb/h"]</v>
@@ -21566,7 +21564,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="319" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="319" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z319" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["lb/s"]</v>
@@ -21578,7 +21576,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="320" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="320" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z320" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["klb/h"]</v>
@@ -21590,7 +21588,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="321" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="321" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z321" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["g/s"]</v>
@@ -21602,7 +21600,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="322" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="322" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z322" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["g/min"]</v>
@@ -21614,7 +21612,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="323" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="323" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z323" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ton/h"]</v>
@@ -21626,7 +21624,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="324" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="324" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z324" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Ns"]</v>
@@ -21638,7 +21636,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="325" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="325" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z325" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W"]</v>
@@ -21650,7 +21648,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="326" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="326" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z326" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mW"]</v>
@@ -21662,7 +21660,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="327" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="327" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z327" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kW"]</v>
@@ -21674,7 +21672,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="328" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="328" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z328" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MW"]</v>
@@ -21686,7 +21684,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="329" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="329" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z329" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["GW"]</v>
@@ -21698,7 +21696,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="330" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="330" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z330" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["BTU/h"]</v>
@@ -21710,7 +21708,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="331" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="331" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z331" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["therm/h"]</v>
@@ -21722,7 +21720,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="332" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="332" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z332" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["hp"]</v>
@@ -21734,7 +21732,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="333" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="333" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z333" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ftlbs/sec"]</v>
@@ -21746,7 +21744,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="334" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="334" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z334" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["tonref"]</v>
@@ -21758,7 +21756,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="335" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="335" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z335" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kBTU/h"]</v>
@@ -21770,7 +21768,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="336" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="336" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z336" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MBTU/h"]</v>
@@ -21782,7 +21780,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="337" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="337" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z337" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["J/h"]</v>
@@ -21794,7 +21792,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="338" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="338" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z338" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kJ/h"]</v>
@@ -21806,7 +21804,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="339" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="339" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z339" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MJ/h"]</v>
@@ -21818,7 +21816,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="340" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="340" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z340" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["GJ/h"]</v>
@@ -21830,7 +21828,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="341" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="341" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z341" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/m²"]</v>
@@ -21842,7 +21840,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="342" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="342" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z342" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/ft²"]</v>
@@ -21854,7 +21852,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="343" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="343" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z343" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kW/m²"]</v>
@@ -21866,7 +21864,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="344" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="344" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z344" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kW/ft²"]</v>
@@ -21878,7 +21876,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="345" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="345" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z345" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kBTU/h/ft²"]</v>
@@ -21890,7 +21888,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="346" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="346" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z346" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/m³/s"]</v>
@@ -21902,7 +21900,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="347" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="347" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z347" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/cfm"]</v>
@@ -21914,7 +21912,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="348" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="348" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z348" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kW/kcfm"]</v>
@@ -21926,7 +21924,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="349" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="349" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z349" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kW/gal/min"]</v>
@@ -21938,7 +21936,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="350" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="350" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z350" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["VA"]</v>
@@ -21950,7 +21948,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="351" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="351" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z351" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kVA"]</v>
@@ -21962,7 +21960,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="352" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="352" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z352" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["VAR"]</v>
@@ -21974,7 +21972,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="353" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="353" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z353" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kVAR"]</v>
@@ -21986,7 +21984,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="354" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="354" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z354" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MVAR"]</v>
@@ -21998,7 +21996,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="355" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="355" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z355" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Pa"]</v>
@@ -22010,7 +22008,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="356" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="356" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z356" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kPa"]</v>
@@ -22022,7 +22020,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="357" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="357" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z357" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["bar"]</v>
@@ -22034,7 +22032,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="358" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="358" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z358" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["atm"]</v>
@@ -22046,7 +22044,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="359" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="359" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z359" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["psi"]</v>
@@ -22058,7 +22056,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="360" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="360" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z360" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cmH₂O"]</v>
@@ -22070,7 +22068,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="361" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="361" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z361" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["in/wc"]</v>
@@ -22082,7 +22080,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="362" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="362" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z362" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mmHg"]</v>
@@ -22094,7 +22092,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="363" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="363" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z363" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cmHg"]</v>
@@ -22106,7 +22104,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="364" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="364" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z364" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["inHg"]</v>
@@ -22118,7 +22116,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="365" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="365" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z365" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["hPa"]</v>
@@ -22130,7 +22128,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="366" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="366" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z366" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mbar"]</v>
@@ -22142,7 +22140,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="367" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="367" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z367" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["°F"]</v>
@@ -22154,7 +22152,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="368" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="368" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z368" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Δ°F"]</v>
@@ -22166,7 +22164,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="369" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="369" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z369" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Δ°C"]</v>
@@ -22178,7 +22176,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="370" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="370" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z370" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ΔK"]</v>
@@ -22190,7 +22188,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="371" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="371" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z371" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ns"]</v>
@@ -22202,7 +22200,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="372" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="372" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z372" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["µs"]</v>
@@ -22214,7 +22212,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="373" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="373" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z373" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ms"]</v>
@@ -22226,7 +22224,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="374" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="374" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z374" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cs"]</v>
@@ -22238,7 +22236,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="375" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="375" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z375" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ds"]</v>
@@ -22250,7 +22248,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="376" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="376" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z376" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["min"]</v>
@@ -22262,7 +22260,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="377" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="377" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z377" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["hr"]</v>
@@ -22274,7 +22272,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="378" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="378" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z378" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["day"]</v>
@@ -22286,7 +22284,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="379" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="379" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z379" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["wk"]</v>
@@ -22298,7 +22296,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="380" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="380" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z380" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mo"]</v>
@@ -22310,7 +22308,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="381" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="381" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z381" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["yr"]</v>
@@ -22322,7 +22320,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="382" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="382" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z382" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m/s"]</v>
@@ -22334,7 +22332,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="383" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="383" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z383" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["km/s"]</v>
@@ -22346,7 +22344,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="384" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="384" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z384" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["km/h"]</v>
@@ -22358,7 +22356,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="385" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="385" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z385" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mph"]</v>
@@ -22370,7 +22368,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="386" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="386" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z386" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ft/s"]</v>
@@ -22382,7 +22380,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="387" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="387" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z387" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ft/min"]</v>
@@ -22394,7 +22392,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="388" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="388" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z388" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mm/s"]</v>
@@ -22406,7 +22404,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="389" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="389" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z389" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mm/min"]</v>
@@ -22418,7 +22416,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="390" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="390" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z390" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m/min"]</v>
@@ -22430,7 +22428,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="391" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="391" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z391" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m/h"]</v>
@@ -22442,7 +22440,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="392" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="392" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z392" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["knot"]</v>
@@ -22454,7 +22452,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="393" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="393" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z393" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m³"]</v>
@@ -22466,7 +22464,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="394" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="394" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z394" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mm³"]</v>
@@ -22478,7 +22476,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="395" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="395" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z395" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cm³"]</v>
@@ -22490,7 +22488,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="396" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="396" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z396" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["hL"]</v>
@@ -22502,7 +22500,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="397" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="397" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z397" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kL"]</v>
@@ -22514,7 +22512,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="398" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="398" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z398" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["in³"]</v>
@@ -22526,7 +22524,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="399" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="399" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z399" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ft³"]</v>
@@ -22538,7 +22536,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="400" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="400" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z400" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["yd³"]</v>
@@ -22550,7 +22548,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="401" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="401" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z401" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["gal"]</v>
@@ -22562,7 +22560,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="402" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="402" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z402" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kgal"]</v>
@@ -22574,7 +22572,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="403" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="403" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z403" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["qt"]</v>
@@ -22586,7 +22584,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="404" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="404" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z404" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["pt"]</v>
@@ -22598,7 +22596,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="405" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="405" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z405" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["fl oz"]</v>
@@ -22610,7 +22608,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="406" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="406" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z406" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["galUK"]</v>
@@ -22622,7 +22620,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="407" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="407" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z407" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["hft³"]</v>
@@ -22634,7 +22632,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="408" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="408" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z408" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m³/s"]</v>
@@ -22646,7 +22644,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="409" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="409" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z409" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mL/s"]</v>
@@ -22658,7 +22656,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="410" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="410" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z410" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["hL/s"]</v>
@@ -22670,7 +22668,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="411" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="411" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z411" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cfs"]</v>
@@ -22682,7 +22680,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="412" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="412" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z412" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cfm"]</v>
@@ -22694,7 +22692,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="413" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="413" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z413" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cfh"]</v>
@@ -22706,7 +22704,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="414" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="414" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z414" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kcfm"]</v>
@@ -22718,7 +22716,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="415" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="415" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z415" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["galUK/min"]</v>
@@ -22730,7 +22728,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="416" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="416" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z416" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["gal/min"]</v>
@@ -22742,7 +22740,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="417" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="417" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z417" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["gal/hr"]</v>
@@ -22754,7 +22752,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="418" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="418" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z418" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m³/min"]</v>
@@ -22766,7 +22764,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="419" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="419" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z419" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m³/h"]</v>
@@ -22778,7 +22776,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="420" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="420" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z420" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["byte"]</v>
@@ -22790,7 +22788,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="421" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="421" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z421" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kB"]</v>
@@ -22802,7 +22800,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="422" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="422" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z422" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MB"]</v>
@@ -22814,7 +22812,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="423" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="423" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z423" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["GB"]</v>
@@ -22826,7 +22824,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="424" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="424" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z424" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["TB"]</v>
@@ -22838,7 +22836,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="425" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="425" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z425" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["PB"]</v>
@@ -22850,7 +22848,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="426" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="426" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z426" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["dBi"]</v>
@@ -22862,7 +22860,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="427" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="427" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z427" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Mbit/s"]</v>
@@ -22874,7 +22872,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="428" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="428" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z428" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Bft"]</v>
@@ -22886,7 +22884,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="429" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="429" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z429" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kW/(m³/s)"]</v>
@@ -22898,7 +22896,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="430" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="430" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z430" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/24h"]</v>
@@ -22910,7 +22908,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="431" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="431" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z431" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mH"]</v>
@@ -22922,7 +22920,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="432" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="432" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z432" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["dB(A)"]</v>
@@ -22934,7 +22932,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="433" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="433" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z433" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/K"]</v>
@@ -22946,7 +22944,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="434" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="434" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z434" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kN"]</v>
@@ -22958,7 +22956,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="435" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="435" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z435" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["l/s"]</v>
@@ -22970,7 +22968,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="436" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="436" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z436" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["h"]</v>
@@ -22982,7 +22980,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="437" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="437" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z437" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["GJ/jaar"]</v>
@@ -22994,7 +22992,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="438" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="438" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z438" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["l"]</v>
@@ -23006,7 +23004,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="439" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="439" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z439" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["%/100%"]</v>
@@ -23018,7 +23016,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="440" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="440" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z440" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["AirWatt"]</v>
@@ -23030,7 +23028,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="441" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="441" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z441" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kWp"]</v>
@@ -23042,7 +23040,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="442" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="442" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z442" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m rad"]</v>
@@ -23054,7 +23052,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="443" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="443" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z443" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kJ/m²"]</v>
@@ -23066,7 +23064,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="444" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="444" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z444" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kcmil"]</v>
@@ -23078,7 +23076,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="445" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="445" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z445" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Jaar"]</v>
@@ -23090,7 +23088,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="446" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="446" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z446" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["dB(A) re 1 pW"]</v>
@@ -23102,7 +23100,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="447" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="447" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z447" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["N/mm"]</v>
@@ -23114,7 +23112,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="448" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="448" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z448" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kJ/Ohm"]</v>
@@ -23126,7 +23124,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="449" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="449" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z449" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Megapixel"]</v>
@@ -23138,7 +23136,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="450" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="450" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z450" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["%/K"]</v>
@@ -23150,7 +23148,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="451" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="451" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z451" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mm/m"]</v>
@@ -23162,7 +23160,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="452" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="452" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z452" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cSt"]</v>
@@ -23174,7 +23172,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="453" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="453" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z453" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["c/min"]</v>
@@ -23186,7 +23184,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="454" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="454" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z454" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["c/h"]</v>
@@ -23198,7 +23196,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="455" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="455" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z455" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["1/min"]</v>
@@ -23210,7 +23208,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="456" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="456" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z456" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["l/min"]</v>
@@ -23222,7 +23220,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="457" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="457" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z457" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kBit/s"]</v>
@@ -23234,7 +23232,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="458" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="458" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z458" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Mbyte"]</v>
@@ -23246,7 +23244,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="459" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="459" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z459" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kByte"]</v>
@@ -23258,7 +23256,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="460" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="460" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z460" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kOhm"]</v>
@@ -23270,7 +23268,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="461" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="461" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z461" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["l/h"]</v>
@@ -23282,7 +23280,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="462" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="462" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z462" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mAh"]</v>
@@ -23294,7 +23292,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="463" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="463" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z463" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["opm"]</v>
@@ -23306,7 +23304,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="464" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="464" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z464" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/m"]</v>
@@ -23318,7 +23316,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="465" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="465" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z465" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Bd"]</v>
@@ -23330,7 +23328,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="466" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="466" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z466" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["DPI"]</v>
@@ -23342,7 +23340,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="467" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="467" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z467" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["lm/W"]</v>
@@ -23354,7 +23352,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="468" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="468" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z468" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["µH"]</v>
@@ -23366,7 +23364,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="469" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="469" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z469" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["µF"]</v>
@@ -23378,7 +23376,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="470" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="470" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z470" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["AX"]</v>
@@ -23390,7 +23388,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="471" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="471" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z471" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["nm"]</v>
@@ -23402,7 +23400,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="472" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="472" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z472" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["°"]</v>
@@ -23414,7 +23412,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="473" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="473" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z473" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["%"]</v>
@@ -23426,7 +23424,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="474" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="474" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z474" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ml"]</v>
@@ -23438,7 +23436,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="475" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="475" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z475" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/m"]</v>
@@ -23450,7 +23448,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="476" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="476" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z476" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["GHz"]</v>
@@ -23462,7 +23460,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="477" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="477" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z477" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MOhm"]</v>
@@ -23474,7 +23472,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="478" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="478" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z478" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mOhm"]</v>
@@ -23486,7 +23484,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="479" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="479" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z479" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kA"]</v>
@@ -23498,7 +23496,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="480" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="480" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z480" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Ohm"]</v>
@@ -23510,7 +23508,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="481" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="481" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z481" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["s"]</v>
@@ -23522,7 +23520,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="482" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="482" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z482" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["V"]</v>
@@ -23534,7 +23532,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="483" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="483" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z483" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Wp"]</v>
@@ -23546,7 +23544,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="484" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="484" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z484" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Imp/kWh (kvarh)"]</v>
@@ -23558,7 +23556,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="485" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="485" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z485" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["dB(C)"]</v>
@@ -23570,7 +23568,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="486" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="486" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z486" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["% m/md"]</v>
@@ -23582,7 +23580,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="487" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="487" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z487" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["°dH"]</v>
@@ -23594,7 +23592,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="488" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="488" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z488" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["µS/cm"]</v>
@@ -23606,7 +23604,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="489" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="489" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z489" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cal/cm²"]</v>
@@ -23618,7 +23616,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="490" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="490" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z490" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["dm"]</v>
@@ -23630,7 +23628,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="491" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="491" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z491" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["g/cm³"]</v>
@@ -23642,7 +23640,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="492" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="492" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z492" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["g/h"]</v>
@@ -23654,7 +23652,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="493" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="493" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z493" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["g/l"]</v>
@@ -23666,7 +23664,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="494" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="494" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z494" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["g/m³"]</v>
@@ -23678,7 +23676,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="495" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="495" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z495" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Gbit/s"]</v>
@@ -23690,7 +23688,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="496" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="496" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z496" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["GJ/year"]</v>
@@ -23702,7 +23700,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="497" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="497" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z497" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["HRC"]</v>
@@ -23714,7 +23712,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="498" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="498" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z498" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/cm/m²"]</v>
@@ -23726,7 +23724,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="499" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="499" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z499" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/km"]</v>
@@ -23738,7 +23736,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="500" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="500" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z500" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kN/m²"]</v>
@@ -23750,7 +23748,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="501" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="501" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z501" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m²/h"]</v>
@@ -23762,7 +23760,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="502" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="502" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z502" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m²/l"]</v>
@@ -23774,7 +23772,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="503" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="503" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z503" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m²/m"]</v>
@@ -23786,7 +23784,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="504" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="504" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z504" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m³/m²h50Pa"]</v>
@@ -23798,7 +23796,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="505" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="505" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z505" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mg/l"]</v>
@@ -23810,7 +23808,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="506" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="506" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z506" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mH2O"]</v>
@@ -23822,7 +23820,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="507" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="507" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z507" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Month"]</v>
@@ -23834,7 +23832,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="508" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="508" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z508" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MP"]</v>
@@ -23846,7 +23844,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="509" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="509" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z509" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["N/mm²"]</v>
@@ -23858,7 +23856,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="510" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="510" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z510" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["nmi"]</v>
@@ -23870,7 +23868,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="511" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="511" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z511" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Ohm/km"]</v>
@@ -23882,7 +23880,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="512" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="512" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z512" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["PSU"]</v>
@@ -23894,7 +23892,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="513" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="513" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z513" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Rpm"]</v>
@@ -23906,7 +23904,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="514" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="514" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z514" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg·m²"]</v>
@@ -23918,7 +23916,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="515" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="515" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z515" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mm²/m"]</v>
@@ -23930,7 +23928,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="516" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="516" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z516" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["(m²·K)/W"]</v>
@@ -23942,7 +23940,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="517" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="517" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z517" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Gbit/sec"]</v>
@@ -23954,7 +23952,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="518" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="518" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z518" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MPa"]</v>
@@ -23966,7 +23964,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="519" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="519" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z519" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cm⁴"]</v>
@@ -23978,7 +23976,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="520" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="520" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z520" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["dBmW"]</v>
@@ -23990,7 +23988,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="521" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="521" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z521" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/100m"]</v>
@@ -24002,7 +24000,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="522" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="522" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z522" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/dm³"]</v>
@@ -24014,7 +24012,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="523" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="523" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z523" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m⁴"]</v>
@@ -24026,7 +24024,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="524" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="524" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z524" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mm/(m⋅K)"]</v>
@@ -24038,7 +24036,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="525" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="525" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z525" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mm⁴"]</v>
@@ -24050,7 +24048,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="526" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="526" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z526" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Ohm⋅m"]</v>
@@ -24062,7 +24060,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="527" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="527" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z527" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["TPI"]</v>
@@ -24074,7 +24072,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="528" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="528" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z528" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["'"]</v>
@@ -24086,7 +24084,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="529" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="529" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z529" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["µA"]</v>
@@ -24098,7 +24096,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="530" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="530" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z530" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/°C"]</v>
@@ -24110,7 +24108,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="531" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="531" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z531" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/cm"]</v>
@@ -24122,7 +24120,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="532" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="532" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z532" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/cm²"]</v>
@@ -24134,7 +24132,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="533" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="533" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z533" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/J"]</v>
@@ -24146,7 +24144,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="534" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="534" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z534" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/mm"]</v>
@@ -24158,7 +24156,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="535" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="535" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z535" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/mm²"]</v>
@@ -24170,7 +24168,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="536" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="536" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z536" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/(m²·K²)"]</v>
@@ -24182,7 +24180,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="537" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="537" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z537" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["A/rad"]</v>
@@ -24194,7 +24192,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="538" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="538" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z538" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Am²/Js"]</v>
@@ -24206,7 +24204,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="539" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="539" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z539" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Ao"]</v>
@@ -24218,7 +24216,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="540" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="540" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z540" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["ar"]</v>
@@ -24230,7 +24228,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="541" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="541" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z541" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["As"]</v>
@@ -24242,7 +24240,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="542" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="542" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z542" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["At"]</v>
@@ -24254,7 +24252,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="543" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="543" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z543" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["bbl"]</v>
@@ -24266,7 +24264,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="544" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="544" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z544" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["bit"]</v>
@@ -24278,7 +24276,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="545" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="545" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z545" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["bit/s"]</v>
@@ -24290,7 +24288,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="546" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="546" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z546" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Bq"]</v>
@@ -24302,7 +24300,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="547" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="547" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z547" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["BTU/lb dry"]</v>
@@ -24314,7 +24312,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="548" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="548" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z548" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["BTU/Wh"]</v>
@@ -24326,7 +24324,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="549" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="549" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z549" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["C·m"]</v>
@@ -24338,7 +24336,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="550" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="550" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z550" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cL"]</v>
@@ -24350,7 +24348,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="551" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="551" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z551" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["CYP"]</v>
@@ -24362,7 +24360,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="552" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="552" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z552" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["J/K"]</v>
@@ -24374,7 +24372,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="553" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="553" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z553" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["J/kg·K"]</v>
@@ -24386,7 +24384,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="554" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="554" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z554" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kJ/K"]</v>
@@ -24398,7 +24396,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="555" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="555" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z555" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MJ/K"]</v>
@@ -24410,7 +24408,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="556" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="556" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z556" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MVA"]</v>
@@ -24422,7 +24420,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="557" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="557" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z557" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["Pa⋅s"]</v>
@@ -24434,7 +24432,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="558" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="558" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z558" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["u"]</v>
@@ -24446,7 +24444,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="559" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="559" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z559" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kN/m"]</v>
@@ -24458,7 +24456,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="560" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="560" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z560" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["1/K"]</v>
@@ -24470,7 +24468,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="561" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="561" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z561" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["1/m"]</v>
@@ -24482,7 +24480,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="562" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="562" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z562" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["1/m²"]</v>
@@ -24494,7 +24492,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="563" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="563" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z563" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["cm²/m"]</v>
@@ -24506,7 +24504,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="564" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="564" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z564" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kJ/kg·K"]</v>
@@ -24518,7 +24516,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="565" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="565" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z565" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kPa·s/m³"]</v>
@@ -24530,7 +24528,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="566" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="566" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z566" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["?"]</v>
@@ -24542,7 +24540,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="567" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="567" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z567" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kN/m³"]</v>
@@ -24554,7 +24552,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="568" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="568" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z568" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MN/m²"]</v>
@@ -24566,7 +24564,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="569" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="569" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z569" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["MN/m³"]</v>
@@ -24578,7 +24576,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="570" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="570" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z570" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mol"]</v>
@@ -24590,7 +24588,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="571" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="571" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z571" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mol/l"]</v>
@@ -24602,7 +24600,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="572" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="572" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z572" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mS/cm"]</v>
@@ -24614,7 +24612,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="573" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="573" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z573" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m/Nm²"]</v>
@@ -24626,7 +24624,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="574" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="574" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z574" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["μT"]</v>
@@ -24638,7 +24636,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="575" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="575" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z575" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["1/h"]</v>
@@ -24650,7 +24648,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="576" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="576" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z576" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["1/s"]</v>
@@ -24662,7 +24660,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="577" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="577" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z577" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mg/dm²"]</v>
@@ -24674,7 +24672,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="578" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="578" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z578" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg CO2 eq"]</v>
@@ -24686,7 +24684,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="579" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="579" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z579" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["CTUe"]</v>
@@ -24698,7 +24696,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="580" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="580" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z580" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["CTUh"]</v>
@@ -24710,7 +24708,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="581" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="581" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z581" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg CFC11 eq"]</v>
@@ -24722,7 +24720,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="582" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="582" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z582" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg N eq"]</v>
@@ -24734,7 +24732,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="583" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="583" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z583" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg NMVOC eq"]</v>
@@ -24746,7 +24744,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="584" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="584" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z584" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg SO2 eq"]</v>
@@ -24758,7 +24756,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="585" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="585" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z585" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m³/(h·m²) @ 50Pa"]</v>
@@ -24770,7 +24768,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="586" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="586" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z586" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mg/kg"]</v>
@@ -24782,7 +24780,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="587" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="587" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z587" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mg/m²/h"]</v>
@@ -24794,7 +24792,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="588" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="588" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z588" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mg/m³"]</v>
@@ -24806,7 +24804,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="589" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="589" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z589" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mol H+ eq"]</v>
@@ -24818,7 +24816,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="590" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="590" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z590" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mol N eq"]</v>
@@ -24830,7 +24828,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="591" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="591" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z591" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["PTV"]</v>
@@ -24842,7 +24840,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="592" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="592" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z592" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["unitless"]</v>
@@ -24854,7 +24852,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="593" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="593" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z593" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["W/m²K²"]</v>
@@ -24866,7 +24864,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="594" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="594" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z594" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kBq U235 eq"]</v>
@@ -24878,7 +24876,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="595" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="595" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z595" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg ethene eq"]</v>
@@ -24890,7 +24888,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="596" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="596" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z596" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg (PO4)^(3-) eq"]</v>
@@ -24902,7 +24900,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="597" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="597" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z597" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg Sb eq"]</v>
@@ -24914,7 +24912,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="598" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="598" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z598" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["kg/m/s/Pa"]</v>
@@ -24926,7 +24924,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="599" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="599" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z599" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m²K/W"]</v>
@@ -24938,7 +24936,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="600" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="600" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z600" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["m³/m²sPa"]</v>
@@ -24950,7 +24948,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="601" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="601" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z601" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mol/m²"]</v>
@@ -24962,7 +24960,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="602" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="602" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z602" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mol/m²/d"]</v>
@@ -24974,7 +24972,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="603" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="603" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z603" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mol/m²/s"]</v>
@@ -24986,7 +24984,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="604" spans="26:29" x14ac:dyDescent="0.3">
+    <row r="604" spans="26:29" x14ac:dyDescent="0.35">
       <c r="Z604" t="str">
         <f>"["""&amp;Units[[#This Row],[Units]]&amp;"""]"</f>
         <v>["mol/m³"]</v>
